--- a/Documents/하늘보리 기능 정의 및 product backlog.xlsx
+++ b/Documents/하늘보리 기능 정의 및 product backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwontaewoo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joey3\HaneulBori\HaneulBori\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B93D32-452A-4B40-A344-6F1EBD303F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C394D57-4321-40EF-8FE4-9D273851D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="520" windowWidth="27600" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="525" windowWidth="13665" windowHeight="13905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
   <si>
     <t>구분</t>
   </si>
@@ -1343,15 +1343,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>user story point</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>story</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>story point</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1418,10 +1410,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>예약 가능 상태인지에 대한 조회가 가능하여야 됨</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>결제가 간편해야 됨</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1558,13 +1546,162 @@
       </rPr>
       <t xml:space="preserve"> 별도의 세탁기 연결 없이 예약 시스템만 구축(교수님 조언)</t>
     </r>
+  </si>
+  <si>
+    <t>DB 설계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>firebase DB 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 베이스의 내용 설계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>firebase 상에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> DB를 구현</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 - DB 연동</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 상에서 DB에 접근 할 수 있도록 지원</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 데이터 정의</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 시 필요한 데이터 정의</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS 로그인 구현 (가능하다면 데이터 추출까지)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 구현 (firebase 상에서 구현)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약기 가능한지 조회 후 예약</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 한 예약을 취소 할 수 있어야됨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단한 통계 데이터를 저장해야 됨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 조회</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드에 저장된 데이터를 조회 가능해야 됨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>임시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 시스템</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 결제 시스템 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 디자인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티비티 설계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 액티비티 디자인 및 설계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 테마, 각 버튼, 텍스트 등의 위치</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스프린트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수 </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1840,7 +1977,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2085,11 +2222,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2223,42 +2425,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2270,27 +2445,51 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2300,28 +2499,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2334,16 +2511,65 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2361,7 +2587,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2424,7 +2650,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2474,10 +2700,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'burn down chart'!$C$6:$M$6</c:f>
+              <c:f>'burn down chart'!$C$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2508,18 +2734,15 @@
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'burn down chart'!$C$7:$M$7</c:f>
+              <c:f>'burn down chart'!$C$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2549,9 +2772,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,10 +2823,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'burn down chart'!$C$6:$M$6</c:f>
+              <c:f>'burn down chart'!$C$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2637,49 +2857,43 @@
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'burn down chart'!$C$8:$M$8</c:f>
+              <c:f>'burn down chart'!$C$8:$L$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>99.555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>87.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>74.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>62.222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>49.777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>37.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>24.888888888888886</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>12.444444444444443</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2746,7 +2960,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2037802751"/>
@@ -2805,7 +3019,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2037801503"/>
@@ -2847,7 +3061,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-KR"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2884,7 +3098,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-KR"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3683,20 +3897,20 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="78.5" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13">
-      <c r="A1" s="84"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+    <row r="1" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -3720,7 +3934,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="16" thickBot="1">
+    <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>55</v>
       </c>
@@ -3749,20 +3963,20 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="13">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="72" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4"/>
@@ -3770,22 +3984,22 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="14" thickBot="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="82"/>
+    <row r="4" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="13">
+    <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -3802,9 +4016,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="76"/>
+    <row r="6" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="75"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="16" t="s">
         <v>42</v>
       </c>
@@ -3821,9 +4035,9 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:25" ht="15">
-      <c r="A7" s="69"/>
-      <c r="B7" s="76"/>
+    <row r="7" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="75"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="17" t="s">
         <v>43</v>
       </c>
@@ -3834,15 +4048,15 @@
         <v>3</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="92" t="s">
-        <v>83</v>
+      <c r="G7" s="60" t="s">
+        <v>80</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="76"/>
+    <row r="8" spans="1:25" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="75"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="17" t="s">
         <v>44</v>
       </c>
@@ -3854,14 +4068,14 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="76"/>
+    <row r="9" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="75"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
@@ -3876,9 +4090,9 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="83" t="s">
+    <row r="10" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="75"/>
+      <c r="B10" s="70" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -3895,9 +4109,9 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="83"/>
+    <row r="11" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="75"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
@@ -3912,16 +4126,16 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="14">
-      <c r="A12" s="69"/>
-      <c r="B12" s="78" t="s">
+    <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="75"/>
+      <c r="B12" s="71" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
@@ -3931,14 +4145,14 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:25" ht="14">
-      <c r="A13" s="69"/>
-      <c r="B13" s="78"/>
+    <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="75"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E13" s="27">
         <v>1</v>
@@ -3948,9 +4162,9 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="14">
-      <c r="A14" s="69"/>
-      <c r="B14" s="78" t="s">
+    <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="75"/>
+      <c r="B14" s="71" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -3967,9 +4181,9 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="14">
-      <c r="A15" s="69"/>
-      <c r="B15" s="78"/>
+    <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="75"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="19" t="s">
         <v>27</v>
       </c>
@@ -3984,8 +4198,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="14">
-      <c r="A16" s="69"/>
+    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="75"/>
       <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
@@ -4003,7 +4217,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="14">
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="68" t="s">
         <v>11</v>
       </c>
@@ -4024,9 +4238,9 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="14">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70" t="s">
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="75"/>
+      <c r="B18" s="67" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -4043,9 +4257,9 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="14">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="75"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
@@ -4060,9 +4274,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="14">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="75"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="13" t="s">
         <v>34</v>
       </c>
@@ -4077,8 +4291,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="75"/>
       <c r="B21" s="9" t="s">
         <v>19</v>
       </c>
@@ -4096,11 +4310,11 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="14">
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="69" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -4117,9 +4331,9 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="73"/>
+    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="31" t="s">
         <v>17</v>
       </c>
@@ -4134,7 +4348,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="13">
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -4145,7 +4359,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="13">
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
@@ -4153,7 +4367,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="13">
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4164,7 +4378,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="13">
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4175,40 +4389,40 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="79" t="s">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="82"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="64"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="73"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="76" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -4221,9 +4435,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="69"/>
-      <c r="B33" s="76"/>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="75"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="16" t="s">
         <v>42</v>
       </c>
@@ -4234,9 +4448,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="B34" s="76"/>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="75"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="17" t="s">
         <v>43</v>
       </c>
@@ -4247,9 +4461,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="69"/>
-      <c r="B35" s="76"/>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="75"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="17" t="s">
         <v>44</v>
       </c>
@@ -4260,9 +4474,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="69"/>
-      <c r="B36" s="76"/>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="75"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="11" t="s">
         <v>10</v>
       </c>
@@ -4273,9 +4487,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="69"/>
-      <c r="B37" s="77" t="s">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="75"/>
+      <c r="B37" s="78" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -4288,9 +4502,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="69"/>
-      <c r="B38" s="77"/>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="75"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="35" t="s">
         <v>21</v>
       </c>
@@ -4301,37 +4515,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="69"/>
-      <c r="B39" s="78" t="s">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="75"/>
+      <c r="B39" s="71" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E39" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="69"/>
-      <c r="B40" s="78"/>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="75"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E40" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="69"/>
-      <c r="B41" s="78" t="s">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="75"/>
+      <c r="B41" s="71" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="19" t="s">
@@ -4344,9 +4558,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="78"/>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="75"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="19" t="s">
         <v>27</v>
       </c>
@@ -4357,8 +4571,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="69"/>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="75"/>
       <c r="B43" s="22" t="s">
         <v>36</v>
       </c>
@@ -4372,7 +4586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="68" t="s">
         <v>11</v>
       </c>
@@ -4389,9 +4603,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="69"/>
-      <c r="B45" s="70" t="s">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="75"/>
+      <c r="B45" s="67" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="16" t="s">
@@ -4404,9 +4618,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="69"/>
-      <c r="B46" s="70"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="75"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="13" t="s">
         <v>32</v>
       </c>
@@ -4417,9 +4631,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="69"/>
-      <c r="B47" s="70"/>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="75"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="13" t="s">
         <v>34</v>
       </c>
@@ -4430,8 +4644,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="69"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="75"/>
       <c r="B48" s="20" t="s">
         <v>19</v>
       </c>
@@ -4445,11 +4659,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="69" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -4462,9 +4676,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A50" s="71"/>
-      <c r="B50" s="73"/>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="64"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="31" t="s">
         <v>17</v>
       </c>
@@ -4477,26 +4691,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="A49:A50"/>
@@ -4506,6 +4700,26 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4515,200 +4729,714 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA63E826-C53F-44DA-A733-3EE59F2BB8B6}">
-  <dimension ref="A4:F13"/>
+  <dimension ref="A4:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="16" thickBot="1">
-      <c r="A4" s="39" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="91" t="s">
+      <c r="D5" s="83" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="82"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="73"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>1</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="51">
-        <v>5</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="C7" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="51">
+        <f>D16</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42">
         <v>2</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="52">
-        <v>7</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="C8" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="52">
+        <f>D26</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42">
         <v>3</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="53">
-        <v>10</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="C9" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="53">
+        <f>D36</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42">
         <v>4</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="53">
-        <v>2</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="C10" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="51">
+        <f>D46</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42">
         <v>5</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="52">
+      <c r="B11" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="52">
+        <f>D56</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>6</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="53">
+        <f>D66</f>
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <f>SUM(D7:D12)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="85"/>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="44">
+        <v>1</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="51">
+        <f>SUM(D17:D22)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="92"/>
+      <c r="B17" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="52">
         <v>8</v>
       </c>
-      <c r="D11" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="42">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="90"/>
+      <c r="B18" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="90"/>
+      <c r="B19" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="90"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="52"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="90"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="52"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="91"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="89"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="85"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="42">
+        <v>2</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="52">
+        <f>SUM(D27:D32)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="92"/>
+      <c r="B27" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="90"/>
+      <c r="B28" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="90"/>
+      <c r="B29" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="90"/>
+      <c r="D30" s="52"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="90"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="52"/>
+    </row>
+    <row r="32" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="91"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="54"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="89"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="85"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="42">
+        <v>3</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="53">
+        <f>SUM(D37:D42)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="92"/>
+      <c r="B37" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="90"/>
+      <c r="B38" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="90"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="52"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="90"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="52"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="90"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="52"/>
+    </row>
+    <row r="42" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="91"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="54"/>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="89"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="85"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="42">
+        <v>4</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="52">
+        <f>SUM(D47:D52)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="92"/>
+      <c r="B47" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="90"/>
+      <c r="B48" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="90"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="52"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="90"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="52"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="90"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="52"/>
+    </row>
+    <row r="52" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="91"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="54"/>
+    </row>
+    <row r="53" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="64"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="73"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="42">
+        <v>5</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="52">
+        <f>SUM(D57:D62)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="42"/>
+      <c r="B57" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="42"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="53"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="42"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="52"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="42"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="52"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="42"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="52"/>
+    </row>
+    <row r="62" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="43"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="54"/>
+    </row>
+    <row r="63" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="64"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="73"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="98">
         <v>6</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="22">
-        <v>5</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="58"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="43">
-        <v>7</v>
-      </c>
-      <c r="B13" s="49" t="s">
+      <c r="B66" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="54">
-        <v>3</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
+      <c r="C66" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="101">
+        <f>SUM(D67:D72)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="94"/>
+      <c r="B67" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="97">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="42"/>
+      <c r="B68" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="42"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="52"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="42"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="52"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="42"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="52"/>
+    </row>
+    <row r="72" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="43"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D5:D6"/>
+  <mergeCells count="28">
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C06C624-1771-4C8C-8885-D55E5F26C417}">
-  <dimension ref="B4:T9"/>
+  <dimension ref="A2:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:20" ht="45">
-      <c r="D4" s="67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="44.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>1</v>
       </c>
@@ -4739,13 +5467,10 @@
       <c r="L6" s="23">
         <v>10</v>
       </c>
-      <c r="M6" s="23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="66" t="s">
-        <v>76</v>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="57" t="s">
+        <v>73</v>
       </c>
       <c r="C7" s="23">
         <v>100</v>
@@ -4777,87 +5502,98 @@
       <c r="L7" s="23">
         <v>15</v>
       </c>
-      <c r="M7" s="23">
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="102">
+        <f>$C$9 - ($C$9 * (C6 - 1) / ($B$2 - 1))</f>
+        <v>112</v>
+      </c>
+      <c r="D8" s="102">
+        <f t="shared" ref="D8:L8" si="0">$C$9 - ($C$9 * (D6 - 1) / ($B$2 - 1))</f>
+        <v>99.555555555555557</v>
+      </c>
+      <c r="E8" s="102">
+        <f t="shared" si="0"/>
+        <v>87.111111111111114</v>
+      </c>
+      <c r="F8" s="102">
+        <f t="shared" si="0"/>
+        <v>74.666666666666657</v>
+      </c>
+      <c r="G8" s="102">
+        <f t="shared" si="0"/>
+        <v>62.222222222222221</v>
+      </c>
+      <c r="H8" s="102">
+        <f t="shared" si="0"/>
+        <v>49.777777777777779</v>
+      </c>
+      <c r="I8" s="102">
+        <f t="shared" si="0"/>
+        <v>37.333333333333329</v>
+      </c>
+      <c r="J8" s="102">
+        <f t="shared" si="0"/>
+        <v>24.888888888888886</v>
+      </c>
+      <c r="K8" s="102">
+        <f t="shared" si="0"/>
+        <v>12.444444444444443</v>
+      </c>
+      <c r="L8" s="102">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="B8" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8" s="23">
-        <v>90</v>
-      </c>
-      <c r="E8" s="23">
-        <v>80</v>
-      </c>
-      <c r="F8" s="23">
-        <v>70</v>
-      </c>
-      <c r="G8" s="23">
-        <v>60</v>
-      </c>
-      <c r="H8" s="23">
-        <v>50</v>
-      </c>
-      <c r="I8" s="23">
-        <v>40</v>
-      </c>
-      <c r="J8" s="23">
-        <v>30</v>
-      </c>
-      <c r="K8" s="23">
-        <v>20</v>
-      </c>
-      <c r="L8" s="23">
-        <v>10</v>
-      </c>
-      <c r="M8" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="66" t="s">
-        <v>77</v>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="57" t="s">
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9" s="23">
-        <v>100</v>
-      </c>
-      <c r="E9" s="23">
-        <v>100</v>
-      </c>
-      <c r="F9" s="23">
-        <v>100</v>
-      </c>
-      <c r="G9" s="23">
-        <v>100</v>
-      </c>
-      <c r="H9" s="23">
-        <v>100</v>
-      </c>
-      <c r="I9" s="23">
-        <v>100</v>
-      </c>
-      <c r="J9" s="23">
-        <v>100</v>
-      </c>
-      <c r="K9" s="23">
-        <v>100</v>
-      </c>
-      <c r="L9" s="23">
-        <v>100</v>
-      </c>
-      <c r="M9" s="23">
-        <v>100</v>
+        <f>'product backlog'!$E12</f>
+        <v>112</v>
+      </c>
+      <c r="D9" s="59">
+        <f>'product backlog'!$E12</f>
+        <v>112</v>
+      </c>
+      <c r="E9" s="59">
+        <f>'product backlog'!$E12</f>
+        <v>112</v>
+      </c>
+      <c r="F9" s="59">
+        <f>'product backlog'!$E12</f>
+        <v>112</v>
+      </c>
+      <c r="G9" s="59">
+        <f>'product backlog'!$E12</f>
+        <v>112</v>
+      </c>
+      <c r="H9" s="59">
+        <f>'product backlog'!$E12</f>
+        <v>112</v>
+      </c>
+      <c r="I9" s="59">
+        <f>'product backlog'!$E12</f>
+        <v>112</v>
+      </c>
+      <c r="J9" s="59">
+        <f>'product backlog'!$E12</f>
+        <v>112</v>
+      </c>
+      <c r="K9" s="59">
+        <f>'product backlog'!$E12</f>
+        <v>112</v>
+      </c>
+      <c r="L9" s="59">
+        <f>'product backlog'!$E12</f>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
